--- a/sheets/xlsxCouplings.xlsx
+++ b/sheets/xlsxCouplings.xlsx
@@ -459,21 +459,21 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>MatchingEngine</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Morpho</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -481,76 +481,76 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>MorphoGovernance</v>
+        <v>IAToken</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>MorphoStorage</v>
+        <v>IERC20</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>MorphoUtils</v>
+        <v>ILendingPool</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IExitPositionsManager</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -558,186 +558,186 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>IIncentivesVault</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IMorpho</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>IOracle</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>IRewardsManager</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>IAToken</v>
+        <v>IMorpho</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IOracle</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>IERC20</v>
+        <v>ILido</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>ILendingPool</v>
+        <v>IndexesLens</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>ILens</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>Lens</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>LensStorage</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>IVariableDebtToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>ILido</v>
+        <v>RatesLens</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Lens</v>
+        <v>DataTypes</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -745,123 +745,123 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>LensStorage</v>
+        <v>Errors</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>MarketsLens</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>RatesLens</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>UsersLens</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>ILens</v>
+        <v>Types</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>InterestRatesModel</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Types</v>
+        <v>Morpho</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>DataTypes</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Errors</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ReserveConfiguration</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UserConfiguration</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -910,21 +910,21 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>MatchingEngine</v>
+        <v>ICEth</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Morpho</v>
+        <v>IComptroller</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -932,43 +932,43 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>MorphoGovernance</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>MorphoStorage</v>
+        <v>ICToken</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>MorphoUtils</v>
+        <v>ICEther</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>PositionsManager</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>RewardsManager</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -987,164 +987,164 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>IIncentivesVault</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IMorpho</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>IMorpho</v>
+        <v>IOracle</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>IOracle</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>IPositionsManager</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>IRewardsManager</v>
+        <v>IWETH</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>IWETH</v>
+        <v>IndexesLens</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>ICEth</v>
+        <v>ILens</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>IComptroller</v>
+        <v>Lens</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>IInterestRateModel</v>
+        <v>LensStorage</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>ICToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>ICEther</v>
+        <v>RatesLens</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>ICompoundOracle</v>
+        <v>RewardsLens</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Lens</v>
+        <v>CompoundMath</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1152,101 +1152,101 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>LensStorage</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>MarketsLens</v>
+        <v>Types</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>RatesLens</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>RewardsLens</v>
+        <v>Morpho</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>UsersLens</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>ILens</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>CompoundMath</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>InterestRatesModel</v>
+        <v>PositionsManager</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Types</v>
+        <v>RewardsManager</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/xlsxCouplings.xlsx
+++ b/sheets/xlsxCouplings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1086,172 +1086,18 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>MarketsLens</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C63"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxCouplings.xlsx
+++ b/sheets/xlsxCouplings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>EntryPositionsManager</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>ExitPositionsManager</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>IERC20Minimal</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAToken</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>IERC20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>ILendingPool</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BitMath</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>FixedPoint128</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>FixedPoint96</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>FullMath</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>LiquidityMath</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>IMorpho</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Oracle</v>
+        <v>IOracle</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Position</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>SafeCast</v>
+        <v>ILido</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IndexesLens</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>SwapMath</v>
+        <v>ILens</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Tick</v>
+        <v>Lens</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>TickBitmap</v>
+        <v>LensStorage</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>TickMath</v>
+        <v>MarketsLens</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TransferHelper</v>
+        <v>RatesLens</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>UnsafeMath</v>
+        <v>UsersLens</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>NoDelegateCall</v>
+        <v>DataTypes</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>Errors</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>BitMathTest</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>FullMathTest</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>Types</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>Morpho</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>OracleTest</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>RewardsDistributor</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>FakeToken</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SwapMathTest</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>TestERC20</v>
+        <v>ICEth</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IComptroller</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>ICToken</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>ICEther</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IMorpho</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>TickMathTest</v>
+        <v>IOracle</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>TickTest</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>IWETH</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>IndexesLens</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>ILens</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Lens</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1086,18 +1086,172 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>LensStorage</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MarketsLens</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>RatesLens</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>RewardsLens</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>UsersLens</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>CompoundMath</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>InterestRatesModel</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Types</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>MatchingEngine</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Morpho</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>MorphoGovernance</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>MorphoStorage</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>MorphoUtils</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>PositionsManager</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>RewardsManager</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/xlsxCouplings.xlsx
+++ b/sheets/xlsxCouplings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>AccessControl</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>AccessControlCrossChain</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>AccessControlDefaultAdminRules</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>IERC20Minimal</v>
+        <v>AccessControlEnumerable</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAccessControl</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAccessControlDefaultAdminRules</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAccessControlEnumerable</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>Ownable</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>Ownable2Step</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>CrossChainEnabledAMB</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>LibAMB</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>CrossChainEnabledArbitrumL1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>CrossChainEnabledArbitrumL2</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BitMath</v>
+        <v>LibArbitrumL1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>FixedPoint128</v>
+        <v>LibArbitrumL2</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>FixedPoint96</v>
+        <v>CrossChainEnabled</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>FullMath</v>
+        <v>CrossChainEnabledOptimism</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>LiquidityMath</v>
+        <v>LibOptimism</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>CrossChainEnabledPolygonChild</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Oracle</v>
+        <v>PaymentSplitter</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Position</v>
+        <v>VestingWallet</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>SafeCast</v>
+        <v>GovernorCompatibilityBravo</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IGovernorCompatibilityBravo</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>SwapMath</v>
+        <v>GovernorCountingSimple</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Tick</v>
+        <v>GovernorPreventLateQuorum</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>TickBitmap</v>
+        <v>GovernorProposalThreshold</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>TickMath</v>
+        <v>GovernorSettings</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TransferHelper</v>
+        <v>GovernorTimelockCompound</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>UnsafeMath</v>
+        <v>GovernorTimelockControl</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>NoDelegateCall</v>
+        <v>GovernorVotes</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>GovernorVotesComp</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>BitMathTest</v>
+        <v>GovernorVotesQuorumFraction</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>IGovernorTimelock</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>FullMathTest</v>
+        <v>Governor</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>IGovernor</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>TimelockController</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>IVotes</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>Votes</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>IERC1822Proxiable</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>IERC1271</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>OracleTest</v>
+        <v>IERC1363</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>IERC1363Receiver</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>IERC1363Spender</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IERC1967</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SwapMathTest</v>
+        <v>IERC2309</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>TestERC20</v>
+        <v>IERC2612</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IERC2981</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IERC3156FlashBorrower</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>IERC3156FlashLender</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>IERC4626</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>IERC4906</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IERC5267</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IERC5313</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IERC5805</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>TickMathTest</v>
+        <v>IERC6372</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>ERC2771Context</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>TickTest</v>
+        <v>MinimalForwarder</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>AccessControlCrossChainMock</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>Uint256ArraysMock</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>AddressArraysMock</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Bytes32ArraysMock</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1086,18 +1086,2405 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>CallReceiverMock</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>CompTimelock</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>ConditionalEscrowMock</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>ContextMock</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ContextMockCaller</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>BaseRelayMock</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>BridgeAMBMock</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>BridgeArbitrumL1Mock</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>BridgeArbitrumL1Inbox</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>BridgeArbitrumL1Outbox</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>BridgeArbitrumL2Mock</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>BridgeOptimismMock</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>BridgePolygonChildMock</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Receiver</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>CrossChainEnabledAMBMock</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>CrossChainEnabledArbitrumL1Mock</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>CrossChainEnabledArbitrumL2Mock</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>CrossChainEnabledOptimismMock</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>CrossChainEnabledPolygonChildMock</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>ERC4626Fees</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Impl</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>DummyImplementation</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>DummyImplementationV2</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>EIP712Verifier</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>ERC1271WalletMock</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>ERC1271MaliciousMock</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>ERC165MaliciousData</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>ERC165MissingData</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>ERC165NotSupported</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>ERC165ReturnBombMock</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>ERC20Mock</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>ERC20Reentrant</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>ERC2771ContextMock</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>ERC3156FlashBorrowerMock</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>ERC4626Mock</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>EtherReceiverMock</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>GovernorCompatibilityBravoMock</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>GovernorCompMock</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>GovernorMock</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>GovernorPreventLateQuorumMock</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>GovernorTimelockCompoundMock</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>GovernorTimelockControlMock</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>GovernorVoteMocks</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>GovernorWithParamsMock</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>InitializableMock</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>ConstructorInitializableMock</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>ChildConstructorInitializableMock</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>ReinitializerMock</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>DisableNew</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>DisableOld</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>DisableBad1</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>DisableBad2</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>DisableOk</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>MulticallTest</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>SampleHuman</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>SampleMother</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>SampleGramps</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>SampleFather</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>SampleChild</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>PausableMock</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>BadBeaconNoImpl</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>BadBeaconNotContract</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>ClashingImplementation</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>UUPSUpgradeableLegacyMock</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>NonUpgradeableMock</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>UUPSUpgradeableMock</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>UUPSUpgradeableUnsafeMock</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>PullPaymentMock</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>ReentrancyAttack</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>ReentrancyMock</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Implementation1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Implementation2</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Implementation3</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Implementation4</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>SafeMathMemoryCheck</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>MigratableMockV1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>MigratableMockV2</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>MigratableMockV3</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>StorageSlotMock</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>TimelockReentrant</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>TimersBlockNumberImpl</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>TimersTimestampImpl</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>ERC1155ReceiverMock</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>ERC20DecimalsMock</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>ERC20ExcessDecimalsMock</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>ERC20FlashMintMock</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>ERC20ForceApproveMock</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>ERC20MulticallMock</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>ERC20NoReturnMock</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>ERC20PermitNoRevertMock</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>ERC20ReturnFalseMock</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>ERC20VotesLegacyMock</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>ERC4626OffsetMock</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>ERC4626FeesMock</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>ERC721ConsecutiveEnumerableMock</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>ERC721ConsecutiveMock</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>ERC721ConsecutiveNoConstructorMintMock</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>ERC721ReceiverMock</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>ERC721URIStorageMock</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>ERC777Mock</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>ERC777SenderRecipientMock</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>ERC20VotesTimestampMock</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>ERC20VotesCompTimestampMock</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>ERC721VotesTimestampMock</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>VotesMock</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>VotesTimestampMock</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>MyGovernor1</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>MyGovernor2</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>MyGovernor</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>BeaconProxy</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>IBeacon</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>UpgradeableBeacon</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Clones</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>ERC1967Proxy</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>ERC1967Upgrade</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Proxy</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>ProxyAdmin</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>ITransparentUpgradeableProxy</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>TransparentUpgradeableProxy</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Initializable</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>UUPSUpgradeable</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Pausable</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>PullPayment</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>ReentrancyGuard</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>ERC2981</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>ERC1155</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>ERC1155Burnable</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>ERC1155Pausable</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>ERC1155Supply</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>ERC1155URIStorage</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>IERC1155MetadataURI</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>IERC1155</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>IERC1155Receiver</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>ERC1155PresetMinterPauser</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>ERC1155Holder</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>ERC1155Receiver</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>ERC20</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>ERC20Burnable</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>ERC20Capped</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>ERC20FlashMint</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>ERC20Pausable</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>ERC20Permit</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>ERC20Snapshot</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>ERC20Votes</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>ERC20VotesComp</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>ERC20Wrapper</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>ERC4626</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>IERC20Metadata</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>IERC20Permit</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>IERC20</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>ERC20PresetFixedSupply</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>ERC20PresetMinterPauser</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>SafeERC20</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>TokenTimelock</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>ERC721</v>
+      </c>
+      <c r="B217">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>ERC721Burnable</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>ERC721Consecutive</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>ERC721Enumerable</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>ERC721Pausable</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>ERC721Royalty</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>ERC721URIStorage</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>ERC721Votes</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>ERC721Wrapper</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>IERC721Enumerable</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>IERC721Metadata</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>IERC721</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>IERC721Receiver</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>ERC721PresetMinterPauserAutoId</v>
+      </c>
+      <c r="B230">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>ERC721Holder</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>ERC777</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>IERC777</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>IERC777Recipient</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>IERC777Sender</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>ERC777PresetFixedSupply</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Address</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Arrays</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Base64</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Checkpoints</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Context</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Counters</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Create2</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>ECDSA</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>EIP712</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>MerkleProof</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>SignatureChecker</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>ConditionalEscrow</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Escrow</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>RefundEscrow</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>ERC165</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>ERC165Checker</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>ERC165Storage</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>ERC1820Implementer</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>IERC165</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>IERC1820Implementer</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>IERC1820Registry</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Math</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>SafeCast</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>SafeMath</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>SignedMath</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>SignedSafeMath</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Multicall</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>ShortStrings</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>StorageSlot</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Strings</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>BitMaps</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>DoubleEndedQueue</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>EnumerableMap</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>EnumerableSet</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Timers</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>IAMB</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>IArbSys</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>IBridge</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>IDelayedMessageProvider</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>IInbox</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>IOutbox</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>ICompoundTimelock</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>ICrossDomainMessenger</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>IFxMessageProcessor</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C280"/>
   </ignoredErrors>
 </worksheet>
 </file>